--- a/vars.xlsx
+++ b/vars.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="245">
-  <si>
-    <t>1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="243">
   <si>
     <t>2</t>
   </si>
@@ -260,9 +257,6 @@
   </si>
   <si>
     <t>82</t>
-  </si>
-  <si>
-    <t>Dataset</t>
   </si>
   <si>
     <t>Activity</t>
@@ -1087,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,10 +1094,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1111,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1122,10 +1116,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1133,10 +1127,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1144,10 +1138,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1155,10 +1149,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1166,10 +1160,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1177,10 +1171,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1188,10 +1182,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1199,10 +1193,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1210,10 +1204,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1221,10 +1215,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1232,10 +1226,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1243,10 +1237,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1254,10 +1248,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1265,10 +1259,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1276,10 +1270,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1287,10 +1281,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1298,10 +1292,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1309,10 +1303,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1320,10 +1314,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1331,10 +1325,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1342,10 +1336,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1353,10 +1347,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1364,10 +1358,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1375,10 +1369,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1386,10 +1380,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1397,10 +1391,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1408,10 +1402,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1419,10 +1413,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1430,10 +1424,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1441,10 +1435,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1452,10 +1446,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1463,10 +1457,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1474,10 +1468,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1485,10 +1479,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1496,10 +1490,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1507,10 +1501,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1518,10 +1512,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1529,10 +1523,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1540,10 +1534,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1551,10 +1545,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1562,10 +1556,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1573,10 +1567,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1584,10 +1578,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1595,10 +1589,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1606,10 +1600,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1617,10 +1611,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1628,10 +1622,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1639,10 +1633,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1650,10 +1644,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1661,10 +1655,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1672,10 +1666,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1683,10 +1677,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1694,10 +1688,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1705,10 +1699,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1716,10 +1710,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1727,10 +1721,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C58" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1738,10 +1732,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C59" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1749,10 +1743,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1760,10 +1754,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1771,10 +1765,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1782,10 +1776,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1793,10 +1787,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1804,10 +1798,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1815,10 +1809,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1826,10 +1820,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1837,10 +1831,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C68" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1848,10 +1842,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1859,10 +1853,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C70" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1870,10 +1864,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1881,10 +1875,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1892,10 +1886,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1903,10 +1897,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C74" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1914,10 +1908,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1925,10 +1919,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1936,10 +1930,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C77" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1947,10 +1941,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C78" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1958,10 +1952,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1969,10 +1963,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1980,10 +1974,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C81" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1991,21 +1985,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>163</v>
-      </c>
-      <c r="C83" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/vars.xlsx
+++ b/vars.xlsx
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
